--- a/ResultadoEleicoesDistritos/FARO_FARO.xlsx
+++ b/ResultadoEleicoesDistritos/FARO_FARO.xlsx
@@ -597,64 +597,64 @@
         <v>17053</v>
       </c>
       <c r="H2" t="n">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="I2" t="n">
         <v>1685</v>
       </c>
       <c r="J2" t="n">
-        <v>7074</v>
+        <v>6880</v>
       </c>
       <c r="K2" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L2" t="n">
-        <v>1864</v>
+        <v>1859</v>
       </c>
       <c r="M2" t="n">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="N2" t="n">
-        <v>1284</v>
+        <v>1249</v>
       </c>
       <c r="O2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="P2" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="Q2" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="R2" t="n">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="S2" t="n">
-        <v>715</v>
+        <v>777</v>
       </c>
       <c r="T2" t="n">
-        <v>1157</v>
+        <v>1313</v>
       </c>
       <c r="U2" t="n">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="V2" t="n">
-        <v>10866</v>
+        <v>10847</v>
       </c>
       <c r="W2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="X2" t="n">
-        <v>10918</v>
+        <v>11051</v>
       </c>
       <c r="Y2" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="Z2" t="n">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="AA2" t="n">
-        <v>103</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
